--- a/alpha/Excel/Datas/ui/ui表.xlsx
+++ b/alpha/Excel/Datas/ui/ui表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="8550"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -50,33 +50,45 @@
     <t>desc</t>
   </si>
   <si>
+    <t>layer</t>
+  </si>
+  <si>
     <t>编号</t>
   </si>
   <si>
     <t>描述</t>
   </si>
   <si>
+    <t>所属层级</t>
+  </si>
+  <si>
+    <t>Loading</t>
+  </si>
+  <si>
+    <t>Loading界面</t>
+  </si>
+  <si>
+    <t>常用奖励类型及格式备注说明</t>
+  </si>
+  <si>
+    <t>货币</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>单个道具数量为1</t>
+  </si>
+  <si>
     <t>OneItem</t>
   </si>
   <si>
-    <t>常用奖励类型及格式备注说明</t>
-  </si>
-  <si>
-    <t>货币</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>单个道具数量为1</t>
-  </si>
-  <si>
     <t>道具ID</t>
   </si>
   <si>
@@ -195,29 +207,19 @@
   </si>
   <si>
     <t>道具数量2</t>
-  </si>
-  <si>
-    <t>LogoUI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动Logo界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>layer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属层级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,16 +229,153 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,14 +384,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,8 +398,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -289,36 +608,322 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -580,19 +1185,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:CC4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="17.875" customWidth="1"/>
@@ -615,290 +1220,291 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:81">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3"/>
-      <c r="BA1" s="3"/>
-      <c r="BB1" s="3"/>
-      <c r="BC1" s="3"/>
-      <c r="BD1" s="3"/>
-      <c r="BE1" s="3"/>
-      <c r="BF1" s="3"/>
-      <c r="BG1" s="3"/>
-      <c r="BH1" s="3"/>
-      <c r="BI1" s="3"/>
-      <c r="BJ1" s="3"/>
-      <c r="BK1" s="3"/>
-      <c r="BL1" s="3"/>
-      <c r="BM1" s="3"/>
-      <c r="BN1" s="3"/>
-      <c r="BO1" s="3"/>
-      <c r="BP1" s="3"/>
-      <c r="BQ1" s="3"/>
-      <c r="BR1" s="3"/>
-      <c r="BS1" s="3"/>
-      <c r="BT1" s="3"/>
-      <c r="BU1" s="3"/>
-      <c r="BV1" s="3"/>
-      <c r="BW1" s="3"/>
-      <c r="BX1" s="3"/>
-      <c r="BY1" s="3"/>
-      <c r="BZ1" s="3"/>
-      <c r="CA1" s="3"/>
-      <c r="CB1" s="3"/>
-      <c r="CC1" s="3"/>
-    </row>
-    <row r="2" spans="1:81" s="3" customFormat="1">
-      <c r="A2" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BT1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BV1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BY1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CA1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CC1" s="2"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:81">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="5"/>
-      <c r="BA2" s="5"/>
-      <c r="BB2" s="5"/>
-      <c r="BC2" s="5"/>
-      <c r="BD2" s="5"/>
-      <c r="BE2" s="5"/>
-      <c r="BF2" s="5"/>
-      <c r="BG2" s="5"/>
-      <c r="BH2" s="5"/>
-      <c r="BI2" s="5"/>
-      <c r="BJ2" s="5"/>
-      <c r="BK2" s="5"/>
-      <c r="BL2" s="5"/>
-      <c r="BM2" s="5"/>
-      <c r="BN2" s="5"/>
-      <c r="BO2" s="5"/>
-      <c r="BP2" s="5"/>
-      <c r="BQ2" s="5"/>
-      <c r="BR2" s="5"/>
-      <c r="BS2" s="5"/>
-      <c r="BT2" s="5"/>
-      <c r="BU2" s="5"/>
-      <c r="BV2" s="5"/>
-      <c r="BW2" s="5"/>
-      <c r="BX2" s="5"/>
-      <c r="BY2" s="5"/>
-      <c r="BZ2" s="5"/>
-      <c r="CA2" s="5"/>
-      <c r="CB2" s="5"/>
-      <c r="CC2" s="5"/>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+      <c r="BM2" s="3"/>
+      <c r="BN2" s="3"/>
+      <c r="BO2" s="3"/>
+      <c r="BP2" s="3"/>
+      <c r="BQ2" s="3"/>
+      <c r="BR2" s="3"/>
+      <c r="BS2" s="3"/>
+      <c r="BT2" s="3"/>
+      <c r="BU2" s="3"/>
+      <c r="BV2" s="3"/>
+      <c r="BW2" s="3"/>
+      <c r="BX2" s="3"/>
+      <c r="BY2" s="3"/>
+      <c r="BZ2" s="3"/>
+      <c r="CA2" s="3"/>
+      <c r="CB2" s="3"/>
+      <c r="CC2" s="3"/>
     </row>
     <row r="3" spans="1:81">
       <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
         <v>10</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-      <c r="AY3" s="5"/>
-      <c r="AZ3" s="5"/>
-      <c r="BA3" s="5"/>
-      <c r="BB3" s="5"/>
-      <c r="BC3" s="5"/>
-      <c r="BD3" s="5"/>
-      <c r="BE3" s="5"/>
-      <c r="BF3" s="5"/>
-      <c r="BG3" s="5"/>
-      <c r="BH3" s="5"/>
-      <c r="BI3" s="5"/>
-      <c r="BJ3" s="5"/>
-      <c r="BK3" s="5"/>
-      <c r="BL3" s="5"/>
-      <c r="BM3" s="5"/>
-      <c r="BN3" s="5"/>
-      <c r="BO3" s="5"/>
-      <c r="BP3" s="5"/>
-      <c r="BQ3" s="5"/>
-      <c r="BR3" s="5"/>
-      <c r="BS3" s="5"/>
-      <c r="BT3" s="5"/>
-      <c r="BU3" s="5"/>
-      <c r="BV3" s="5"/>
-      <c r="BW3" s="5"/>
-      <c r="BX3" s="5"/>
-      <c r="BY3" s="5"/>
-      <c r="BZ3" s="5"/>
-      <c r="CA3" s="5"/>
-      <c r="CB3" s="5"/>
-      <c r="CC3" s="5"/>
-    </row>
-    <row r="4" spans="1:81">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="3"/>
+      <c r="BL3" s="3"/>
+      <c r="BM3" s="3"/>
+      <c r="BN3" s="3"/>
+      <c r="BO3" s="3"/>
+      <c r="BP3" s="3"/>
+      <c r="BQ3" s="3"/>
+      <c r="BR3" s="3"/>
+      <c r="BS3" s="3"/>
+      <c r="BT3" s="3"/>
+      <c r="BU3" s="3"/>
+      <c r="BV3" s="3"/>
+      <c r="BW3" s="3"/>
+      <c r="BX3" s="3"/>
+      <c r="BY3" s="3"/>
+      <c r="BZ3" s="3"/>
+      <c r="CA3" s="3"/>
+      <c r="CB3" s="3"/>
+      <c r="CC3" s="3"/>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -914,152 +1520,152 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1070,7 +1676,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:9">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1083,110 +1689,110 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>51</v>
+      <c r="F18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>